--- a/public/template/sample_sheet.xlsx
+++ b/public/template/sample_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="10835" windowHeight="8135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>branch_id</t>
   </si>
@@ -144,15 +141,6 @@
   </si>
   <si>
     <t>buyer_tin</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>deleted_at</t>
   </si>
 </sst>
 </file>
@@ -1309,19 +1297,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="18.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:42">
+    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,18 +1422,6 @@
       </c>
       <c r="AL1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
